--- a/data/buildrate/buildrate.xlsx
+++ b/data/buildrate/buildrate.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="460" windowWidth="24240" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1360" yWindow="460" windowWidth="24240" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="6-30" sheetId="3" r:id="rId1"/>
-    <sheet name="7-30" sheetId="2" r:id="rId2"/>
-    <sheet name="10-30" sheetId="1" r:id="rId3"/>
+    <sheet name="gnu-1020" sheetId="4" r:id="rId2"/>
+    <sheet name="7-30" sheetId="2" r:id="rId3"/>
+    <sheet name="10-30" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_24pm1015" localSheetId="2">'10-30'!$A$1:$F$103</definedName>
+    <definedName name="_24pm1015" localSheetId="3">'10-30'!$A$1:$F$103</definedName>
     <definedName name="_30pm1015" localSheetId="0">'6-30'!$A$1:$E$104</definedName>
-    <definedName name="_36pm1015" localSheetId="1">'7-30'!$A$1:$E$104</definedName>
+    <definedName name="_36pm1015" localSheetId="2">'7-30'!$A$1:$E$104</definedName>
+    <definedName name="_58pm1020" localSheetId="1">'gnu-1020'!$A$1:$E$54</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +35,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="24pm1015" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/hebi/github/Helium/data/buildrate/buildrate-10:24pm1015.csv" tab="0" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/hebi/github/Helium/data/buildrate/buildrate-10:24pm1015.csv" tab="0" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -44,7 +46,7 @@
     </textPr>
   </connection>
   <connection id="2" name="30pm1015" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/hebi/github/Helium/data/buildrate/buildrate-6:30pm1015.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/hebi/github/Helium/data/buildrate/buildrate-6:30pm1015.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -55,7 +57,18 @@
     </textPr>
   </connection>
   <connection id="3" name="36pm1015" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/hebi/github/Helium/data/buildrate/buildrate-7:36pm1015.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/hebi/github/Helium/data/buildrate/buildrate-7:36pm1015.csv" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="58pm1020" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/hebi/github/Helium/data/buildrate/buildrate-gnu-1:58pm1020.csv" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -69,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="166">
   <si>
     <t># time limit: 30s</t>
   </si>
@@ -399,16 +412,198 @@
   </si>
   <si>
     <t># seg: 50</t>
+  </si>
+  <si>
+    <t>strange syntax</t>
+  </si>
+  <si>
+    <t>preprocess fail</t>
+  </si>
+  <si>
+    <t>undefined type, without header</t>
+  </si>
+  <si>
+    <t>./alive</t>
+  </si>
+  <si>
+    <t>./anubis</t>
+  </si>
+  <si>
+    <t>./artanis</t>
+  </si>
+  <si>
+    <t>./autoconf-archive</t>
+  </si>
+  <si>
+    <t>./cim</t>
+  </si>
+  <si>
+    <t>/home/hebi/github/Helium/scripts/buildrate.sh: line 11: 21702 Segmentation fault      timeout 60 helium $fname &gt; /dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>./coreutils</t>
+  </si>
+  <si>
+    <t>./cssc</t>
+  </si>
+  <si>
+    <t>./datamash</t>
+  </si>
+  <si>
+    <t>./dfarc</t>
+  </si>
+  <si>
+    <t>./dhcp</t>
+  </si>
+  <si>
+    <t>./dink-data</t>
+  </si>
+  <si>
+    <t>./enscript</t>
+  </si>
+  <si>
+    <t>./examples</t>
+  </si>
+  <si>
+    <t>./freedink</t>
+  </si>
+  <si>
+    <t>./freedink-data</t>
+  </si>
+  <si>
+    <t>./gama</t>
+  </si>
+  <si>
+    <t>./gcide</t>
+  </si>
+  <si>
+    <t>./gcl</t>
+  </si>
+  <si>
+    <t>/home/hebi/github/Helium/scripts/buildrate.sh: line 11: 30590 Segmentation fault      timeout 60 helium $fname &gt; /dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>./gengen</t>
+  </si>
+  <si>
+    <t>./gengetopt</t>
+  </si>
+  <si>
+    <t>./glean</t>
+  </si>
+  <si>
+    <t>./gm2</t>
+  </si>
+  <si>
+    <t>./gnuastro</t>
+  </si>
+  <si>
+    <t>./gnugo</t>
+  </si>
+  <si>
+    <t>./gnuherds-app</t>
+  </si>
+  <si>
+    <t>./gnuit</t>
+  </si>
+  <si>
+    <t>./gnunet</t>
+  </si>
+  <si>
+    <t>./grub</t>
+  </si>
+  <si>
+    <t>./gss</t>
+  </si>
+  <si>
+    <t>/home/hebi/github/Helium/scripts/buildrate.sh: line 11:  6997 Segmentation fault      timeout 60 helium $fname &gt; /dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>./guile-rpc</t>
+  </si>
+  <si>
+    <t>./guix</t>
+  </si>
+  <si>
+    <t>./guix-artwork</t>
+  </si>
+  <si>
+    <t>./halifax</t>
+  </si>
+  <si>
+    <t>./libidn</t>
+  </si>
+  <si>
+    <t>./libidn2</t>
+  </si>
+  <si>
+    <t>./librefm</t>
+  </si>
+  <si>
+    <t>./libtasn1</t>
+  </si>
+  <si>
+    <t>./libtool</t>
+  </si>
+  <si>
+    <t>./lilypond</t>
+  </si>
+  <si>
+    <t>/home/hebi/github/Helium/scripts/buildrate.sh: line 11: 10249 Segmentation fault      timeout 60 helium $fname &gt; /dev/null 2&gt;&amp;1</t>
+  </si>
+  <si>
+    <t>./m4</t>
+  </si>
+  <si>
+    <t>./mailutils</t>
+  </si>
+  <si>
+    <t>./maintenance</t>
+  </si>
+  <si>
+    <t>./mdk</t>
+  </si>
+  <si>
+    <t>./mediagoblin</t>
+  </si>
+  <si>
+    <t>./minife</t>
+  </si>
+  <si>
+    <t>./miscfiles</t>
+  </si>
+  <si>
+    <t>./myserver</t>
+  </si>
+  <si>
+    <t>./qt</t>
+  </si>
+  <si>
+    <t>./windinkedit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -434,8 +629,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +652,14 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="58pm1020" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="36pm1015" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="24pm1015" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -725,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,806 +970,806 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1</v>
-      </c>
-      <c r="D8">
-        <v>98</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="D10">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>0.14000000000000001</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>-1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E15">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>38</v>
-      </c>
-      <c r="D16">
-        <v>58</v>
-      </c>
       <c r="E16">
-        <v>0.39</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>0.9</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E20">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>-1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <v>0.05</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="E25">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="D27">
-        <v>781</v>
+        <v>61</v>
       </c>
       <c r="E27">
-        <v>0.09</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>-1</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>235</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>361</v>
       </c>
       <c r="E28">
-        <v>0.68</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>109</v>
       </c>
       <c r="E29">
-        <v>0.56999999999999995</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>99</v>
       </c>
       <c r="D30">
-        <v>811</v>
+        <v>157</v>
       </c>
       <c r="E30">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E31">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E32">
-        <v>0.09</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>-1</v>
       </c>
       <c r="C33">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="D33">
-        <v>361</v>
+        <v>31</v>
       </c>
       <c r="E33">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D34">
-        <v>455</v>
+        <v>105</v>
       </c>
       <c r="E34">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C37">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>379</v>
+        <v>120</v>
       </c>
       <c r="E37">
-        <v>0.16</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D38">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="E39">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D40">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="E40">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D43">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E43">
-        <v>0.38</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="E44">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D46">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D47">
-        <v>60</v>
+        <v>379</v>
       </c>
       <c r="E47">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B48">
         <v>-1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C49">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D49">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="E49">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="E50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>-1</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>839</v>
+        <v>90</v>
       </c>
       <c r="E51">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1577,217 +1778,220 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E52">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B53">
         <v>-1</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D54">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="E54">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="1">
         <v>-1</v>
       </c>
-      <c r="C55">
-        <v>6</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="1">
+        <v>99</v>
+      </c>
+      <c r="D55" s="1">
+        <v>811</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C56">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D56">
-        <v>52</v>
+        <v>455</v>
       </c>
       <c r="E56">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C57">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D57">
-        <v>45</v>
+        <v>781</v>
       </c>
       <c r="E57">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C58">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D58">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E58">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B59">
         <v>-1</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="E60">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D61">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="E61">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>4</v>
       </c>
       <c r="D62">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E62">
         <v>0.08</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>-1</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="E63">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>-1</v>
       </c>
       <c r="C64">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="E64">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -1804,162 +2008,165 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>-1</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E66">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="1">
         <v>-1</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>50</v>
       </c>
-      <c r="D68">
-        <v>120</v>
-      </c>
-      <c r="E68">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D68" s="1">
+        <v>839</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C69">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="E69">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>-1</v>
       </c>
       <c r="C70">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D70">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c r="E70">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>227</v>
+      </c>
+      <c r="E71">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>197</v>
+      </c>
+      <c r="E72">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73">
         <v>-1</v>
       </c>
-      <c r="C71">
-        <v>68</v>
-      </c>
-      <c r="D71">
-        <v>187</v>
-      </c>
-      <c r="E71">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72">
-        <v>-1</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
       <c r="C73">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D73">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="E73">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B74">
         <v>-1</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1968,15 +2175,15 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>229</v>
       </c>
       <c r="E75">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B76">
         <v>-1</v>
@@ -1985,49 +2192,49 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B77">
         <v>-1</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="B78">
         <v>-1</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="E78">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="B79">
         <v>-1</v>
@@ -2042,131 +2249,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C80">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B81">
         <v>-1</v>
       </c>
       <c r="C81">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82">
+        <v>-1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>13</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83">
+        <v>-1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>195</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>303</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>44</v>
       </c>
-      <c r="E81">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>25</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>37</v>
-      </c>
-      <c r="D83">
-        <v>129</v>
-      </c>
-      <c r="E83">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>110</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85">
-        <v>-1</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
-        <v>91</v>
-      </c>
-      <c r="E85">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86">
-        <v>-1</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
       <c r="B87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2178,111 +2391,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B88">
         <v>-1</v>
       </c>
       <c r="C88">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="E89">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B91">
         <v>-1</v>
       </c>
       <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92">
+        <v>-1</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93">
+        <v>-1</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
         <v>2</v>
       </c>
-      <c r="D91">
-        <v>10</v>
-      </c>
-      <c r="E91">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>8</v>
-      </c>
-      <c r="D93">
-        <v>227</v>
-      </c>
       <c r="E93">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B94">
         <v>-1</v>
@@ -2297,35 +2510,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C95">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2333,67 +2546,67 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C97">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>0.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C98">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B100">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="D100">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2401,7 +2614,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B101">
         <v>-1</v>
@@ -2418,53 +2631,53 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B102">
         <v>-1</v>
       </c>
       <c r="C102">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E102">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
         <v>9</v>
       </c>
-      <c r="D103">
-        <v>10</v>
-      </c>
       <c r="E103">
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2482,11 +2695,923 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A5:E104">
+    <sortCondition descending="1" ref="E5:E104"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D32:D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4">
+        <v>124</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5">
+        <v>124</v>
+      </c>
+      <c r="C5">
+        <v>86</v>
+      </c>
+      <c r="D5">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>115</v>
+      </c>
+      <c r="D7">
+        <v>106</v>
+      </c>
+      <c r="E7">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>78</v>
+      </c>
+      <c r="E8">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <v>124</v>
+      </c>
+      <c r="C11">
+        <v>78</v>
+      </c>
+      <c r="D11">
+        <v>164</v>
+      </c>
+      <c r="E11">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>114</v>
+      </c>
+      <c r="E13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <v>124</v>
+      </c>
+      <c r="C16">
+        <v>43</v>
+      </c>
+      <c r="D16">
+        <v>205</v>
+      </c>
+      <c r="E16">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19">
+        <v>124</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="2">
+        <v>124</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>282</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>41</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42">
+        <v>124</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <f>SUM(C2:C46)</f>
+        <v>601</v>
+      </c>
+      <c r="D47">
+        <f>SUM(D2:D46)</f>
+        <v>1480</v>
+      </c>
+      <c r="E47">
+        <f>C47/(C47+D47)</f>
+        <v>0.28880345987506006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>139</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>139</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>139</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>139</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E54">
+    <sortCondition descending="1" ref="E2:E54"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E104"/>
   <sheetViews>
@@ -4233,12 +5358,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4279,58 +5404,58 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4339,661 +5464,661 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>0.03</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>0.03</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>0.17</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14">
-        <v>0.81</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0.37</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>0.92</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>0.23</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E23">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D24">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="E24">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E26">
-        <v>0.14000000000000001</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E27">
-        <v>0.68</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E28">
-        <v>0.59</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D29">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="E29">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D30">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E30">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="E31">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="E32">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E33">
-        <v>0.1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>0.16</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="E38">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E39">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E40">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E42">
-        <v>0.47</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D43">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="E43">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5002,253 +6127,262 @@
         <v>16</v>
       </c>
       <c r="D46">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E46">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D48">
+        <v>61</v>
+      </c>
+      <c r="E48">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49">
+        <v>119</v>
+      </c>
+      <c r="E49">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>27</v>
+      </c>
+      <c r="E50">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>55</v>
+      </c>
+      <c r="E51">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>45</v>
+      </c>
+      <c r="E52">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>15</v>
+      </c>
+      <c r="D53" s="1">
+        <v>130</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2">
+        <v>114</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>14</v>
+      </c>
+      <c r="D55">
+        <v>117</v>
+      </c>
+      <c r="E55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>78</v>
+      </c>
+      <c r="E56">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>43</v>
+      </c>
+      <c r="E57">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
         <v>41</v>
       </c>
-      <c r="E48">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="E58">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
         <v>11</v>
       </c>
-      <c r="D50">
+      <c r="D59" s="1">
         <v>132</v>
       </c>
-      <c r="E50">
+      <c r="E59" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>43</v>
-      </c>
-      <c r="E51">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>52</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>6</v>
-      </c>
-      <c r="D54">
-        <v>6</v>
-      </c>
-      <c r="E54">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>66</v>
-      </c>
-      <c r="D55">
-        <v>51</v>
-      </c>
-      <c r="E55">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
+      <c r="F59" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
         <v>37</v>
       </c>
-      <c r="D56">
-        <v>43</v>
-      </c>
-      <c r="E56">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>69</v>
-      </c>
-      <c r="D57">
-        <v>6</v>
-      </c>
-      <c r="E57">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>74</v>
-      </c>
-      <c r="D59">
-        <v>48</v>
-      </c>
-      <c r="E59">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
       <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5257,66 +6391,66 @@
         <v>4</v>
       </c>
       <c r="D61">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E61">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
+        <v>8</v>
+      </c>
+      <c r="D62">
+        <v>108</v>
+      </c>
+      <c r="E62">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
         <v>1</v>
       </c>
-      <c r="D62">
-        <v>27</v>
-      </c>
-      <c r="E62">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>11</v>
-      </c>
       <c r="D63">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E63">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E64">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -5325,576 +6459,582 @@
         <v>1</v>
       </c>
       <c r="D65">
+        <v>24</v>
+      </c>
+      <c r="E65">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>60</v>
+      </c>
+      <c r="E66">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>84</v>
+      </c>
+      <c r="E67">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>27</v>
+      </c>
+      <c r="E68">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
         <v>36</v>
       </c>
-      <c r="E65">
+      <c r="E69">
         <v>0.02</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>54</v>
+      </c>
+      <c r="E70">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>11</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>144</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>46</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>24</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>52</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>5</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>76</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
         <v>3</v>
       </c>
-      <c r="D66">
-        <v>14</v>
-      </c>
-      <c r="E66">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>33</v>
-      </c>
-      <c r="D67">
-        <v>75</v>
-      </c>
-      <c r="E67">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>96</v>
-      </c>
-      <c r="D68">
-        <v>30</v>
-      </c>
-      <c r="E68">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>8</v>
-      </c>
-      <c r="D69">
-        <v>108</v>
-      </c>
-      <c r="E69">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
-        <v>16</v>
-      </c>
-      <c r="D70">
-        <v>26</v>
-      </c>
-      <c r="E70">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>50</v>
-      </c>
-      <c r="D72">
-        <v>64</v>
-      </c>
-      <c r="E72">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-      <c r="D74">
-        <v>4</v>
-      </c>
-      <c r="E74">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>6</v>
-      </c>
-      <c r="D77">
-        <v>45</v>
-      </c>
-      <c r="E77">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>81</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>47</v>
-      </c>
-      <c r="D79">
-        <v>18</v>
-      </c>
-      <c r="E79">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>27</v>
-      </c>
-      <c r="D80">
-        <v>44</v>
-      </c>
-      <c r="E80">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>25</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>20</v>
-      </c>
-      <c r="D82">
-        <v>58</v>
-      </c>
-      <c r="E82">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
+      <c r="D94">
         <v>110</v>
       </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>36</v>
-      </c>
-      <c r="E84">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>88</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>89</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-      <c r="D87">
-        <v>50</v>
-      </c>
-      <c r="E87">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>56</v>
-      </c>
-      <c r="D88">
-        <v>72</v>
-      </c>
-      <c r="E88">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>4</v>
-      </c>
-      <c r="D90">
-        <v>8</v>
-      </c>
-      <c r="E90">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>129</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>25</v>
-      </c>
-      <c r="D94">
-        <v>72</v>
-      </c>
-      <c r="E94">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>13</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>99</v>
-      </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>0.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -5903,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -5911,7 +7051,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -5928,53 +7068,53 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
       <c r="C101">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E101">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D102">
         <v>9</v>
       </c>
       <c r="E102">
-        <v>0.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -5987,11 +7127,14 @@
         <v>3880</v>
       </c>
       <c r="E104">
-        <f>C104/D104</f>
-        <v>0.41649484536082476</v>
+        <f>C104/(C104+D104)</f>
+        <v>0.29403202328966521</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:E103">
+    <sortCondition descending="1" ref="E4:E103"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>